--- a/output.xlsx
+++ b/output.xlsx
@@ -587,7 +587,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -633,10 +633,10 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -656,7 +656,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
@@ -682,7 +682,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -725,10 +725,10 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
@@ -751,7 +751,7 @@
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -889,7 +889,7 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
@@ -935,7 +935,7 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -981,7 +981,7 @@
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
@@ -1004,10 +1004,10 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1024,10 +1024,10 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
         <v>25</v>
@@ -1142,10 +1142,10 @@
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1208,7 +1208,7 @@
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
         <v>25</v>
@@ -1234,7 +1234,7 @@
         <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G34" t="s">
         <v>25</v>
@@ -1257,7 +1257,7 @@
         <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
@@ -1277,10 +1277,10 @@
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s">
         <v>25</v>
@@ -1346,7 +1346,7 @@
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
         <v>25</v>
@@ -1369,7 +1369,7 @@
         <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F40" t="s">
         <v>25</v>
@@ -1395,7 +1395,7 @@
         <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G41" t="s">
         <v>25</v>
@@ -1415,7 +1415,7 @@
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
         <v>25</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
         <v>27</v>
@@ -1484,7 +1484,7 @@
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
@@ -1510,7 +1510,7 @@
         <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G46" t="s">
         <v>25</v>
@@ -1530,10 +1530,10 @@
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G47" t="s">
         <v>25</v>
@@ -1553,7 +1553,7 @@
         <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
         <v>25</v>
@@ -1599,7 +1599,7 @@
         <v>27</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
         <v>25</v>
@@ -1622,7 +1622,7 @@
         <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
         <v>25</v>
@@ -1645,10 +1645,10 @@
         <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G52" t="s">
         <v>25</v>
@@ -1763,10 +1763,10 @@
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1783,7 +1783,7 @@
         <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
@@ -1806,7 +1806,7 @@
         <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
         <v>25</v>
@@ -1878,7 +1878,7 @@
         <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G62" t="s">
         <v>25</v>
@@ -1967,7 +1967,7 @@
         <v>27</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F66" t="s">
         <v>25</v>
@@ -1990,7 +1990,7 @@
         <v>27</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
         <v>26</v>
@@ -2039,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G69" t="s">
         <v>25</v>
@@ -2059,7 +2059,7 @@
         <v>26</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F70" t="s">
         <v>25</v>
@@ -2082,10 +2082,10 @@
         <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G71" t="s">
         <v>25</v>
@@ -2128,10 +2128,10 @@
         <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G73" t="s">
         <v>25</v>
@@ -2174,10 +2174,10 @@
         <v>26</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G75" t="s">
         <v>25</v>
@@ -2197,10 +2197,10 @@
         <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G76" t="s">
         <v>25</v>
@@ -2243,10 +2243,10 @@
         <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G78" t="s">
         <v>25</v>
@@ -2289,7 +2289,7 @@
         <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
         <v>25</v>
@@ -2312,10 +2312,10 @@
         <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G81" t="s">
         <v>25</v>
@@ -2335,7 +2335,7 @@
         <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F82" t="s">
         <v>25</v>
@@ -2361,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G83" t="s">
         <v>25</v>
@@ -2381,7 +2381,7 @@
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F84" t="s">
         <v>25</v>
@@ -2453,7 +2453,7 @@
         <v>27</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G87" t="s">
         <v>26</v>
@@ -2519,7 +2519,7 @@
         <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F90" t="s">
         <v>25</v>
@@ -2591,7 +2591,7 @@
         <v>27</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G93" t="s">
         <v>27</v>
@@ -2611,10 +2611,10 @@
         <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G94" t="s">
         <v>25</v>
@@ -2726,7 +2726,7 @@
         <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F99" t="s">
         <v>25</v>
@@ -2752,7 +2752,7 @@
         <v>26</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G100" t="s">
         <v>25</v>
@@ -2772,7 +2772,7 @@
         <v>26</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F101" t="s">
         <v>25</v>
@@ -2821,10 +2821,10 @@
         <v>27</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2841,7 +2841,7 @@
         <v>26</v>
       </c>
       <c r="E104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F104" t="s">
         <v>25</v>
@@ -2864,10 +2864,10 @@
         <v>25</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G105" t="s">
         <v>25</v>
@@ -2933,7 +2933,7 @@
         <v>25</v>
       </c>
       <c r="E108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F108" t="s">
         <v>25</v>
@@ -2959,7 +2959,7 @@
         <v>26</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G109" t="s">
         <v>26</v>
@@ -2979,10 +2979,10 @@
         <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G110" t="s">
         <v>25</v>
@@ -3002,7 +3002,7 @@
         <v>25</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F111" t="s">
         <v>25</v>
@@ -3025,7 +3025,7 @@
         <v>26</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F112" t="s">
         <v>25</v>
@@ -3048,7 +3048,7 @@
         <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F113" t="s">
         <v>25</v>
@@ -3074,10 +3074,10 @@
         <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3094,7 +3094,7 @@
         <v>27</v>
       </c>
       <c r="E115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F115" t="s">
         <v>25</v>
@@ -3117,7 +3117,7 @@
         <v>27</v>
       </c>
       <c r="E116" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F116" t="s">
         <v>26</v>
@@ -3163,7 +3163,7 @@
         <v>26</v>
       </c>
       <c r="E118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F118" t="s">
         <v>25</v>
@@ -3186,7 +3186,7 @@
         <v>25</v>
       </c>
       <c r="E119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F119" t="s">
         <v>25</v>
@@ -3209,7 +3209,7 @@
         <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F120" t="s">
         <v>25</v>
@@ -3232,7 +3232,7 @@
         <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F121" t="s">
         <v>25</v>
@@ -3278,10 +3278,10 @@
         <v>25</v>
       </c>
       <c r="E123" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G123" t="s">
         <v>26</v>
@@ -3324,7 +3324,7 @@
         <v>25</v>
       </c>
       <c r="E125" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F125" t="s">
         <v>26</v>
@@ -3370,10 +3370,10 @@
         <v>25</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G127" t="s">
         <v>25</v>
@@ -3396,7 +3396,7 @@
         <v>25</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G128" t="s">
         <v>25</v>
@@ -3416,7 +3416,7 @@
         <v>26</v>
       </c>
       <c r="E129" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F129" t="s">
         <v>25</v>
@@ -3439,7 +3439,7 @@
         <v>25</v>
       </c>
       <c r="E130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F130" t="s">
         <v>25</v>
@@ -3465,7 +3465,7 @@
         <v>26</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G131" t="s">
         <v>25</v>
@@ -3508,7 +3508,7 @@
         <v>26</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F133" t="s">
         <v>25</v>
@@ -3577,7 +3577,7 @@
         <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
         <v>25</v>
@@ -3623,7 +3623,7 @@
         <v>26</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F138" t="s">
         <v>25</v>
@@ -3669,10 +3669,10 @@
         <v>26</v>
       </c>
       <c r="E140" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G140" t="s">
         <v>25</v>
@@ -3692,10 +3692,10 @@
         <v>27</v>
       </c>
       <c r="E141" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G141" t="s">
         <v>26</v>
@@ -3715,7 +3715,7 @@
         <v>27</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F142" t="s">
         <v>25</v>
@@ -3738,7 +3738,7 @@
         <v>26</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F143" t="s">
         <v>25</v>
@@ -3784,7 +3784,7 @@
         <v>26</v>
       </c>
       <c r="E145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F145" t="s">
         <v>25</v>
@@ -3807,7 +3807,7 @@
         <v>25</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F146" t="s">
         <v>26</v>
@@ -3856,7 +3856,7 @@
         <v>25</v>
       </c>
       <c r="F148" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G148" t="s">
         <v>25</v>
@@ -3876,7 +3876,7 @@
         <v>27</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F149" t="s">
         <v>25</v>
@@ -3922,7 +3922,7 @@
         <v>26</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F151" t="s">
         <v>25</v>
@@ -3991,7 +3991,7 @@
         <v>27</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F154" t="s">
         <v>25</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -544,7 +544,7 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -590,7 +590,7 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -639,7 +639,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -662,7 +662,7 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -682,7 +682,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -728,10 +728,10 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -754,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -800,7 +800,7 @@
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -820,7 +820,7 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
@@ -892,7 +892,7 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -935,10 +935,10 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -981,10 +981,10 @@
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1004,10 +1004,10 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1050,10 +1050,10 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1096,10 +1096,10 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1142,10 +1142,10 @@
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1168,7 +1168,7 @@
         <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1188,10 +1188,10 @@
         <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1214,7 +1214,7 @@
         <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1237,7 +1237,7 @@
         <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1283,7 +1283,7 @@
         <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1349,10 +1349,10 @@
         <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1395,7 +1395,7 @@
         <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
         <v>25</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G44" t="s">
         <v>27</v>
@@ -1513,7 +1513,7 @@
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1536,7 +1536,7 @@
         <v>27</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1559,7 +1559,7 @@
         <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1602,10 +1602,10 @@
         <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1648,10 +1648,10 @@
         <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1717,10 +1717,10 @@
         <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1740,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G56" t="s">
         <v>25</v>
@@ -1766,7 +1766,7 @@
         <v>26</v>
       </c>
       <c r="G57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1786,7 +1786,7 @@
         <v>27</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G58" t="s">
         <v>26</v>
@@ -1809,10 +1809,10 @@
         <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1881,7 +1881,7 @@
         <v>27</v>
       </c>
       <c r="G62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1901,10 +1901,10 @@
         <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1927,7 +1927,7 @@
         <v>25</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1970,10 +1970,10 @@
         <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1996,7 +1996,7 @@
         <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2042,7 +2042,7 @@
         <v>26</v>
       </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2085,10 +2085,10 @@
         <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2108,10 +2108,10 @@
         <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2131,7 +2131,7 @@
         <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G73" t="s">
         <v>25</v>
@@ -2180,7 +2180,7 @@
         <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2226,7 +2226,7 @@
         <v>25</v>
       </c>
       <c r="G77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2249,7 +2249,7 @@
         <v>27</v>
       </c>
       <c r="G78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2318,7 +2318,7 @@
         <v>26</v>
       </c>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2338,10 +2338,10 @@
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2361,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G83" t="s">
         <v>25</v>
@@ -2384,7 +2384,7 @@
         <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G84" t="s">
         <v>25</v>
@@ -2410,7 +2410,7 @@
         <v>25</v>
       </c>
       <c r="G85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2453,10 +2453,10 @@
         <v>27</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2525,7 +2525,7 @@
         <v>25</v>
       </c>
       <c r="G90" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2548,7 +2548,7 @@
         <v>25</v>
       </c>
       <c r="G91" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2614,10 +2614,10 @@
         <v>26</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2637,7 +2637,7 @@
         <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G95" t="s">
         <v>25</v>
@@ -2729,10 +2729,10 @@
         <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2752,10 +2752,10 @@
         <v>26</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2775,7 +2775,7 @@
         <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G101" t="s">
         <v>26</v>
@@ -2801,7 +2801,7 @@
         <v>26</v>
       </c>
       <c r="G102" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2844,10 +2844,10 @@
         <v>26</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G104" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2867,10 +2867,10 @@
         <v>26</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2939,7 +2939,7 @@
         <v>25</v>
       </c>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2959,7 +2959,7 @@
         <v>26</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G109" t="s">
         <v>26</v>
@@ -2982,10 +2982,10 @@
         <v>26</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G110" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3031,7 +3031,7 @@
         <v>25</v>
       </c>
       <c r="G112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3051,10 +3051,10 @@
         <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3074,10 +3074,10 @@
         <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3123,7 +3123,7 @@
         <v>26</v>
       </c>
       <c r="G116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3166,7 +3166,7 @@
         <v>26</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G118" t="s">
         <v>25</v>
@@ -3192,7 +3192,7 @@
         <v>25</v>
       </c>
       <c r="G119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3215,7 +3215,7 @@
         <v>25</v>
       </c>
       <c r="G120" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3235,10 +3235,10 @@
         <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G121" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3281,10 +3281,10 @@
         <v>27</v>
       </c>
       <c r="F123" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G123" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3373,7 +3373,7 @@
         <v>26</v>
       </c>
       <c r="F127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G127" t="s">
         <v>25</v>
@@ -3396,7 +3396,7 @@
         <v>25</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G128" t="s">
         <v>25</v>
@@ -3419,10 +3419,10 @@
         <v>26</v>
       </c>
       <c r="F129" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G129" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3442,7 +3442,7 @@
         <v>26</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G130" t="s">
         <v>25</v>
@@ -3465,10 +3465,10 @@
         <v>26</v>
       </c>
       <c r="F131" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3557,7 +3557,7 @@
         <v>26</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G135" t="s">
         <v>25</v>
@@ -3583,7 +3583,7 @@
         <v>25</v>
       </c>
       <c r="G136" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3626,10 +3626,10 @@
         <v>26</v>
       </c>
       <c r="F138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3652,7 +3652,7 @@
         <v>26</v>
       </c>
       <c r="G139" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3675,7 +3675,7 @@
         <v>27</v>
       </c>
       <c r="G140" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3695,7 +3695,7 @@
         <v>27</v>
       </c>
       <c r="F141" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G141" t="s">
         <v>26</v>
@@ -3721,7 +3721,7 @@
         <v>25</v>
       </c>
       <c r="G142" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3744,7 +3744,7 @@
         <v>25</v>
       </c>
       <c r="G143" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3790,7 +3790,7 @@
         <v>25</v>
       </c>
       <c r="G145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3813,7 +3813,7 @@
         <v>26</v>
       </c>
       <c r="G146" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3928,7 +3928,7 @@
         <v>25</v>
       </c>
       <c r="G151" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3974,7 +3974,7 @@
         <v>27</v>
       </c>
       <c r="G153" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3994,10 +3994,10 @@
         <v>26</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G154" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
